--- a/data/hotels_by_city/Houston/Houston_shard_321.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_321.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d4054638-Reviews-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-East-Baytown.h5970587.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,963 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r552212411-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>4054638</t>
+  </si>
+  <si>
+    <t>552212411</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>not honest employees</t>
+  </si>
+  <si>
+    <t>After I checked out,I realized I had left my good I-pad charger in my room and called immediately to see if it had been turned in.  I went back to see if I could look in their lost and found and the manager said no and wouldn't let me look in their lost and found box. At other hotels, when I've left articles, they always let me look in their lost and found without hesitation.  Not at all customer friendly.  MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>After I checked out,I realized I had left my good I-pad charger in my room and called immediately to see if it had been turned in.  I went back to see if I could look in their lost and found and the manager said no and wouldn't let me look in their lost and found box. At other hotels, when I've left articles, they always let me look in their lost and found without hesitation.  Not at all customer friendly.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r530890474-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>530890474</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One night only </t>
+  </si>
+  <si>
+    <t>We had 8 of us in for business so didn’t visit pool or workout facilities. Check in was bit long but fine. Skip the free breakfast unless you’re grabbing a cinnamon roll. Coffee station stayed out of half &amp; half along with milk. Beds were comfy. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded October 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2017</t>
+  </si>
+  <si>
+    <t>We had 8 of us in for business so didn’t visit pool or workout facilities. Check in was bit long but fine. Skip the free breakfast unless you’re grabbing a cinnamon roll. Coffee station stayed out of half &amp; half along with milk. Beds were comfy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r528721600-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>528721600</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable!</t>
+  </si>
+  <si>
+    <t>This is exactly why we love Holiday Inn Express!  When we are traveling, they are always consistently clean and have well-appointed rooms and very comfortable beds.  The front desk staff was very friendly and efficient with a quick and painless check in.  We checked in late after a long day of driving.  I would stay here again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r502748706-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>502748706</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Bed was a little hard</t>
+  </si>
+  <si>
+    <t>Woke up every hour just couldn't get comfortable, the room was cool enough and quite enough but the bed just a little stiff for my liking. Bathroom was clean and water pressure was good and plenty of warm waterMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Woke up every hour just couldn't get comfortable, the room was cool enough and quite enough but the bed just a little stiff for my liking. Bathroom was clean and water pressure was good and plenty of warm waterMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r492330551-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>492330551</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Meeting room rental</t>
+  </si>
+  <si>
+    <t>My husband held a meeting in the meeting room. Everyone on staff was extremely helpful, especially Martha.  At every turn, there was someone to help with every need.  Even those in attendance were extremely impressed with the service.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r484801856-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>484801856</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Great Holiday Inn Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My first time staying at a Holiday Inn Express &amp; it was exactly as I expected. Nice room, über comfy bed, a squeaky clean bathroom. We didn't have time for breakfast but the stay was amazing. The two ladies at the front desk were extremely helpful. We will definitely stay here again. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r448029303-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>448029303</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>New and clean, but cheaply built</t>
+  </si>
+  <si>
+    <t>I booked this due to it being new and the manager responses. The hotel is new and clean. Bed is hard, but not bad, TV was not set to correct input, so we had to fuss with it after 9 hours of driving. We were in 210, there must be an air conditioner under the floor that shakes the entire room. It rattles the appliances. This needs to be fixed. The hotel is near Buc-ees and number of restaurants and Starbucks. We did not go to the breakfast.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r427007554-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>427007554</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>One of the best in the Area</t>
+  </si>
+  <si>
+    <t>Baytown has only a few quality hotels. This is one of them.Clean, modern, safe. Staff is helpful.Simple but acceptable breakfast, WIFI works, rooms are fine too.The area is not really appealing as is just one block off the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Baytown has only a few quality hotels. This is one of them.Clean, modern, safe. Staff is helpful.Simple but acceptable breakfast, WIFI works, rooms are fine too.The area is not really appealing as is just one block off the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r423971387-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>423971387</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarkable staff </t>
+  </si>
+  <si>
+    <t>After a rough few days of loosing my father in a car accident we checked in at 4am and Gladys was the most remarkable and helpful lady ever. She was very sympathetic and accommodated us when other places wouldn't. She was a blessing in disguise because we didn't have to worry about only getting a partial amount of sleep before having to check out. Everyone here was amazing and Martha made sure breakfast was fully stocked for us and got us everything we needed. We would recommend this hotel to anyone! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>After a rough few days of loosing my father in a car accident we checked in at 4am and Gladys was the most remarkable and helpful lady ever. She was very sympathetic and accommodated us when other places wouldn't. She was a blessing in disguise because we didn't have to worry about only getting a partial amount of sleep before having to check out. Everyone here was amazing and Martha made sure breakfast was fully stocked for us and got us everything we needed. We would recommend this hotel to anyone! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r404947320-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>404947320</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Will stay here again</t>
+  </si>
+  <si>
+    <t>We have now stayed at this new hotel a couple of times. On this visit we really enjoyed our three day stay. Since the place is less than a year old, it is fresh and clean. The room was well serviced and the bed was wonderful. My interaction with several staff members was excellent. The breakfast was great and the gentleman working there went out of his way to ensure that I was happy and satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>We have now stayed at this new hotel a couple of times. On this visit we really enjoyed our three day stay. Since the place is less than a year old, it is fresh and clean. The room was well serviced and the bed was wonderful. My interaction with several staff members was excellent. The breakfast was great and the gentleman working there went out of his way to ensure that I was happy and satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r388883451-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>388883451</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Awesome!!</t>
+  </si>
+  <si>
+    <t>Great hotel.  Super clean and very comfortable.  Staff is very effecient.Great breakfast served. Something for everyone.  If you are needing a great hotel in Baytown this is the hotel for you. Will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Zhan J, Front Office Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel.  Super clean and very comfortable.  Staff is very effecient.Great breakfast served. Something for everyone.  If you are needing a great hotel in Baytown this is the hotel for you. Will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r365818047-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>365818047</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Recent visit to Baytown.</t>
+  </si>
+  <si>
+    <t>My Husband and I stayed at the Holiday Inn Express Suits in Baytown for the first time. We stayed for a week under sad circumstances and our accommodation was booked by friends. We had a room on the third floor away from the street which was very quiet. The room was large with a comfortable bed, reasonable bathroom with good water pressure. Coffee making facilities and a bar fridge were included. The area felt safe and the hotel clean. Our problem was with the staff. At breakfast the first few days it was difficult to hear our selves think while the front desk staff carried on loud conversations with each other. The staff member looking after breakfast was either walking around singing loudly to herself or joining in the conversation. Several times although our room was cleaned and the bed made, the coffee and cups were not replenished and we would have to go down stairs to collect more. The final straw was coming back from a dear friends funeral to find a note on the unmade bed stating it could not be made due to personal items in the bed. Those personal items were two pillows! Goodness knows how difficult it is to remove two pillows, make the bed and then replace the pillows. I would recommend this hotel but be aware the service is inconsistent.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>My Husband and I stayed at the Holiday Inn Express Suits in Baytown for the first time. We stayed for a week under sad circumstances and our accommodation was booked by friends. We had a room on the third floor away from the street which was very quiet. The room was large with a comfortable bed, reasonable bathroom with good water pressure. Coffee making facilities and a bar fridge were included. The area felt safe and the hotel clean. Our problem was with the staff. At breakfast the first few days it was difficult to hear our selves think while the front desk staff carried on loud conversations with each other. The staff member looking after breakfast was either walking around singing loudly to herself or joining in the conversation. Several times although our room was cleaned and the bed made, the coffee and cups were not replenished and we would have to go down stairs to collect more. The final straw was coming back from a dear friends funeral to find a note on the unmade bed stating it could not be made due to personal items in the bed. Those personal items were two pillows! Goodness knows how difficult it is to remove two pillows, make the bed and then replace the pillows. I would recommend this hotel but be aware the service is inconsistent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r352505398-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>352505398</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent guest services </t>
+  </si>
+  <si>
+    <t>We stopped at this hotel on our way home. It was Late night "Gladys" guest services was very helpful and was amazing- knowing it was very late at night. She thank us for our HIG- platinum level membership and want above and Beyond. Hope someone at the hotel management or Corp would see this and deliver " JOB WELL DONE recognition and congrats" This location is another brand new location, it was by far the best Holliday inn Express we stayed in for the life time. Not to forget about the rooms, bed and breakfast area : all at 5 stars level. Thank you and for sure we will stop by on our next trip to HOUSTON. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>We stopped at this hotel on our way home. It was Late night "Gladys" guest services was very helpful and was amazing- knowing it was very late at night. She thank us for our HIG- platinum level membership and want above and Beyond. Hope someone at the hotel management or Corp would see this and deliver " JOB WELL DONE recognition and congrats" This location is another brand new location, it was by far the best Holliday inn Express we stayed in for the life time. Not to forget about the rooms, bed and breakfast area : all at 5 stars level. Thank you and for sure we will stop by on our next trip to HOUSTON. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r349157862-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>349157862</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>good stay for houston</t>
+  </si>
+  <si>
+    <t>we stay in bay town when we go to Houston to just stay out of the city busy traffic. I do not have any issues here. Our room smelled like glue but that was because it was remolded. I woke up with a horrid head ache.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>we stay in bay town when we go to Houston to just stay out of the city busy traffic. I do not have any issues here. Our room smelled like glue but that was because it was remolded. I woke up with a horrid head ache.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r347754916-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>347754916</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Worst holiday Inn I've stayed at</t>
+  </si>
+  <si>
+    <t>I stayed here from November - February with about 13 other co-workers. And this hotel is by far the worst one I've stayed at. I travel constantly around 10 to 11 months a year and we stay at Holiday Inn 90% of the time. And they are generally myou favorite hotel, but this one is the worst ever. The house keeping is under par if they even show up and the general manager Mr. Zon or however you spell it, is a total waste of time and won't help anyone with anything or he is just not very smartMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I stayed here from November - February with about 13 other co-workers. And this hotel is by far the worst one I've stayed at. I travel constantly around 10 to 11 months a year and we stay at Holiday Inn 90% of the time. And they are generally myou favorite hotel, but this one is the worst ever. The house keeping is under par if they even show up and the general manager Mr. Zon or however you spell it, is a total waste of time and won't help anyone with anything or he is just not very smartMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r321946270-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>321946270</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Extremely friendly staff</t>
+  </si>
+  <si>
+    <t>Everything about this property was as a HEI is expected to be.  It was very clean and the staff was excellent.  The only reason that I did not rate it a 5 was the slow refills of food at breakfast.  At one time almost all the hot food (eggs, biscuit, sausage, ham, and gravy) was empty.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Everything about this property was as a HEI is expected to be.  It was very clean and the staff was excellent.  The only reason that I did not rate it a 5 was the slow refills of food at breakfast.  At one time almost all the hot food (eggs, biscuit, sausage, ham, and gravy) was empty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r315827462-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>315827462</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>girl's weekend</t>
+  </si>
+  <si>
+    <t>Hotel is clean and modern.  Good selection of breakfast items and Shelby at the front desk was by far the friendliest and funniest of any reservationists I have come across in my travels. My friends and I walked next door to nail salon for pedicures which was really convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is clean and modern.  Good selection of breakfast items and Shelby at the front desk was by far the friendliest and funniest of any reservationists I have come across in my travels. My friends and I walked next door to nail salon for pedicures which was really convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r286527325-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>286527325</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>Made a reservation for double bed ... When I arrived at the Hotel.. They apologized for the mistake online No double avaible... So they upgraded me to a Suite... No charge... Hotel was Clean... Room was really nice!!!! Quite!!! Just an all around pleasent stay.... I would return anytime!!!!! Very reasonable prices too!!!!! The stay was very sweet !!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Made a reservation for double bed ... When I arrived at the Hotel.. They apologized for the mistake online No double avaible... So they upgraded me to a Suite... No charge... Hotel was Clean... Room was really nice!!!! Quite!!! Just an all around pleasent stay.... I would return anytime!!!!! Very reasonable prices too!!!!! The stay was very sweet !!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r274834885-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>274834885</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>QUick Gwt-Away</t>
+  </si>
+  <si>
+    <t>Great Holiday Inn Express very friendly front desk and breakfast bar attendant. Will definitely stay at this location in he future on trips to this area. Clean rooms and very well designed.  Highly recommend this property. Platinum Elite Business TravelerMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Great Holiday Inn Express very friendly front desk and breakfast bar attendant. Will definitely stay at this location in he future on trips to this area. Clean rooms and very well designed.  Highly recommend this property. Platinum Elite Business TravelerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r273418490-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>273418490</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Nice,clean and friendly</t>
+  </si>
+  <si>
+    <t>Staff was attentive, friendly, and helpful. Standard Holiday Inn breakfast. Daily newspaper. Hotel only one year old. Plenty of local places to eat. Clean rooms and nice swimming pool. Have stayed there the past two trips. Will be there again twice more.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2015</t>
+  </si>
+  <si>
+    <t>Staff was attentive, friendly, and helpful. Standard Holiday Inn breakfast. Daily newspaper. Hotel only one year old. Plenty of local places to eat. Clean rooms and nice swimming pool. Have stayed there the past two trips. Will be there again twice more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r273292017-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>273292017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Baytown,Texas</t>
+  </si>
+  <si>
+    <t>We stayed here during a project in Port Arthur. The rooms were very clean. All the equipment worked well. During the time I was there, the pool was not yet opened so really can't rate that. Dining area was very nice with a free, hot complimentary breakfast.   Staff was very friendly and motel is located very near dining and shoppingMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here during a project in Port Arthur. The rooms were very clean. All the equipment worked well. During the time I was there, the pool was not yet opened so really can't rate that. Dining area was very nice with a free, hot complimentary breakfast.   Staff was very friendly and motel is located very near dining and shoppingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r270827057-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>270827057</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>your paying for a bed and shower. dont expect anything else</t>
+  </si>
+  <si>
+    <t>this negative review would never have been written if management had only contacted me. i left my name and number at the front desk. NO RESPONSE first issue....internet is dial up speed do not expect to get any work done at the hotel. i hotspotted from my phone. even after several calls with holiday inns tech support. waste of my time to spend a hour on the phone and nothing happenssecond issue....elevator is out of service for 4 days. this is not a small town in the middle of nowhere.  repair men are all call 24/7 around here. third....really takes you two days to put a out of order sign by the elevator. did not even put one by the front door. did you inform your guest before or after they checked in???fourth issue.....tv hardly worked. front desk had to constantly reset the system. i had to reset it in room. i just quit. another waste of time. it just did not work.plus side the room is clean and the bed is comfortable. i am sure in a few years this will no longer be true.IF YOU HAVE ISSUE DO NOT EXPECT MANAGEMENT TO CONTACT YOU OR FIX THEM.  i am sure a generic response from management will follow asking to contact them. you should have done that while i was a guest at the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>this negative review would never have been written if management had only contacted me. i left my name and number at the front desk. NO RESPONSE first issue....internet is dial up speed do not expect to get any work done at the hotel. i hotspotted from my phone. even after several calls with holiday inns tech support. waste of my time to spend a hour on the phone and nothing happenssecond issue....elevator is out of service for 4 days. this is not a small town in the middle of nowhere.  repair men are all call 24/7 around here. third....really takes you two days to put a out of order sign by the elevator. did not even put one by the front door. did you inform your guest before or after they checked in???fourth issue.....tv hardly worked. front desk had to constantly reset the system. i had to reset it in room. i just quit. another waste of time. it just did not work.plus side the room is clean and the bed is comfortable. i am sure in a few years this will no longer be true.IF YOU HAVE ISSUE DO NOT EXPECT MANAGEMENT TO CONTACT YOU OR FIX THEM.  i am sure a generic response from management will follow asking to contact them. you should have done that while i was a guest at the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r267919337-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>267919337</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>All around excellent experience</t>
+  </si>
+  <si>
+    <t>My wife and I were on our way to Houston to board a cruise ship the next morning. The last 2 hotels we had stayed at [a competitor] had no printer available for various reasons and we were the weekend. This HI had the same problem BUT they offered to let me use the computer behind the checkout counter [extra one] as they were slow at that time to print our boarding passes saving us the stress of going to a print shop on Sunday! Finally a hotel that cared! The task took about 3 minutes and we were very grateful. That is one of the reasons I have been a priority member since it's inception. The hospitality is number one here. Of course the cleanliness, breakfast, amenities, and such are all at least up to standard or above for HI. When the staff cares about the customers and goes out of their way to help you just can't get any better than that. We will return on our next trip through without a doubt. If you are traveling near I recommend you do also.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I were on our way to Houston to board a cruise ship the next morning. The last 2 hotels we had stayed at [a competitor] had no printer available for various reasons and we were the weekend. This HI had the same problem BUT they offered to let me use the computer behind the checkout counter [extra one] as they were slow at that time to print our boarding passes saving us the stress of going to a print shop on Sunday! Finally a hotel that cared! The task took about 3 minutes and we were very grateful. That is one of the reasons I have been a priority member since it's inception. The hospitality is number one here. Of course the cleanliness, breakfast, amenities, and such are all at least up to standard or above for HI. When the staff cares about the customers and goes out of their way to help you just can't get any better than that. We will return on our next trip through without a doubt. If you are traveling near I recommend you do also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r262988029-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>262988029</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>It's new... that is about it...</t>
+  </si>
+  <si>
+    <t>The WI-FI here is AWFUL! Even the staff was apologizing. TV didn't work - DISH Network had to be rebooted by staff - took about an hour overall and it seemed they'd done this many times before (why not just fix it). Overall, not the best. I wanted it to be great, then good, then, ok, and meh. Not my favorite. Again, it is NEW so...This review was a chore in itself - took about 45 minutes because of the WiFI.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>The WI-FI here is AWFUL! Even the staff was apologizing. TV didn't work - DISH Network had to be rebooted by staff - took about an hour overall and it seemed they'd done this many times before (why not just fix it). Overall, not the best. I wanted it to be great, then good, then, ok, and meh. Not my favorite. Again, it is NEW so...This review was a chore in itself - took about 45 minutes because of the WiFI.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r261781763-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>261781763</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>$ vs Atmosphere,</t>
+  </si>
+  <si>
+    <t>I use the IHG brands exclusively for my business and on most of my pleasure trips. I left a review on the hotels site that was rejected, and I'm still un-sure why?The property is new, staff was helpful and friendly, clean room, very nice in the great room for breakfast.My 2 issues I have, that I feel i was REJECTED for are:#1 The price of this hotel was high, i.e. the same brands and other in a close by city on the beach are $50 cheaper. This is most likely due to the Baytown inn being close to large plants and refineries. This brings up my next complaint. #2 My stay was during a rainy period, (Crews were unable to work); same crews were monopolising &amp; trashing the lobby entrance with mud and laying on hotel furniture at front desk. Not the most savory people in the world.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>I use the IHG brands exclusively for my business and on most of my pleasure trips. I left a review on the hotels site that was rejected, and I'm still un-sure why?The property is new, staff was helpful and friendly, clean room, very nice in the great room for breakfast.My 2 issues I have, that I feel i was REJECTED for are:#1 The price of this hotel was high, i.e. the same brands and other in a close by city on the beach are $50 cheaper. This is most likely due to the Baytown inn being close to large plants and refineries. This brings up my next complaint. #2 My stay was during a rainy period, (Crews were unable to work); same crews were monopolising &amp; trashing the lobby entrance with mud and laying on hotel furniture at front desk. Not the most savory people in the world.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r261739177-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>261739177</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Very nice Hotel with freindly staff. Lots of places to eat close by. Breakfast was good, opened early for those that had to leave for work. Fresh fruit would have been nice in lobby in the evenings, but, everything was very nice and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice Hotel with freindly staff. Lots of places to eat close by. Breakfast was good, opened early for those that had to leave for work. Fresh fruit would have been nice in lobby in the evenings, but, everything was very nice and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r261700817-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>261700817</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>The lobby and all public areas were clean and in good repair. The room was clean and smelled fresh. My room was a bit noisy from the neighbors and the hallway. While laying in bed I could hear full conversations outside. I didn't get to taste the breakfast but it smelled delicious.MoreShow less</t>
+  </si>
+  <si>
+    <t>The lobby and all public areas were clean and in good repair. The room was clean and smelled fresh. My room was a bit noisy from the neighbors and the hallway. While laying in bed I could hear full conversations outside. I didn't get to taste the breakfast but it smelled delicious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r245635034-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>245635034</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>The stay was worth the price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was great! Staff was really friendly, breakfast was yummy. Definitely worth the price.Price may seem a bit steep but if you have AAA don't forget to get your discount. Unfortunately our stay was due to a funeral but it was close to everything. Happy travels :) </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r243339059-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>243339059</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>Excellent in every way</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here pre-cruise out of Houston. I can't even make 1 negative comment about this place except it is not that close to the cruise terminal (19 miles) and they don't have a shuttle. Not a problem for us though since we drove from near San Antonio where we live.The hotel has only been open for 6 months so it still has that new hotel feel. It is located in a very good area, the rooms are spacious and well maintained. The staff was very friendly (especially Georgina), the breakfast was top notch. Given the opportunity,l we will definitely stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here pre-cruise out of Houston. I can't even make 1 negative comment about this place except it is not that close to the cruise terminal (19 miles) and they don't have a shuttle. Not a problem for us though since we drove from near San Antonio where we live.The hotel has only been open for 6 months so it still has that new hotel feel. It is located in a very good area, the rooms are spacious and well maintained. The staff was very friendly (especially Georgina), the breakfast was top notch. Given the opportunity,l we will definitely stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r239953467-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>239953467</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>We will be back!</t>
+  </si>
+  <si>
+    <t>The staff was exceptionally friendly and professional. The rooms were extremely spacious and clean. The hot breakfast was great, along with the nice lady that handles that department. My family and I will be back again. Garth Road has a ton of shopping and eating places, which was very accessible within less of a mile from the hotel. Kudos to the staff for their 24 hour service with a smile!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded November 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2014</t>
+  </si>
+  <si>
+    <t>The staff was exceptionally friendly and professional. The rooms were extremely spacious and clean. The hot breakfast was great, along with the nice lady that handles that department. My family and I will be back again. Garth Road has a ton of shopping and eating places, which was very accessible within less of a mile from the hotel. Kudos to the staff for their 24 hour service with a smile!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r230414986-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>230414986</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t>Was happy to find this gem of a hotel in Baytown.  Very new property, clean and close to plenty of restaurants.  Staff was excellent too.  If u stay in Baytown you gotta check this property out!  Typical HIE breakfast menu, nice pool too.  Only negative was speed of internet connection.  Wonder if they have enough band width to support 20 or 30 computers on wifi at the same time?MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Michelle F, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Was happy to find this gem of a hotel in Baytown.  Very new property, clean and close to plenty of restaurants.  Staff was excellent too.  If u stay in Baytown you gotta check this property out!  Typical HIE breakfast menu, nice pool too.  Only negative was speed of internet connection.  Wonder if they have enough band width to support 20 or 30 computers on wifi at the same time?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r224196047-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>224196047</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>We were very pleased with our stay at the Holiday Inn! Check in process was quick and easy and our room was clean and comfortable. Had a restful night and enjoyed a hot breakfast the next morning. Georgina was exceptional in taking care of the breakfast bar and very considerate and helpful to us. Will definitely stay here again on our next visit to Baytown!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle F, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>We were very pleased with our stay at the Holiday Inn! Check in process was quick and easy and our room was clean and comfortable. Had a restful night and enjoyed a hot breakfast the next morning. Georgina was exceptional in taking care of the breakfast bar and very considerate and helpful to us. Will definitely stay here again on our next visit to Baytown!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r222574395-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>222574395</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Excellent value at a great location</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel during the end of June and found it an excellent choice. The rooms are spacious and well appointed. The breakfast consists of a good selection, served during a user friendly time and the business center consists of brand new computers. The location is central to several other amenities that makes it a great selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel during the end of June and found it an excellent choice. The rooms are spacious and well appointed. The breakfast consists of a good selection, served during a user friendly time and the business center consists of brand new computers. The location is central to several other amenities that makes it a great selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r209072590-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>209072590</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for near two months for work. Everyone there was so nice and very helpful with anything that I needed. I really enjoyed my stay there and if I'm every back in the area for work or fun I will still here again. Thanks for my wonderful to the entire staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded June 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for near two months for work. Everyone there was so nice and very helpful with anything that I needed. I really enjoyed my stay there and if I'm every back in the area for work or fun I will still here again. Thanks for my wonderful to the entire staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r208066234-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>208066234</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Excellent Hotel in Baytown TX</t>
+  </si>
+  <si>
+    <t>I'm not american and I'm travelling trough the States since weeks, this is one of the best hotel I've been!Brand new and very clean hotel.Staff is extremely professional, efficient and courteous.I booked for 2 nigths only while I changed my plan and asked for an extension of my stay; it has been done without any problem and at the same rate.I left the room for a short business visit around 8,00 AM returning before 11,00 AM and my room was already cleaned for that time!!!A great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2014</t>
+  </si>
+  <si>
+    <t>I'm not american and I'm travelling trough the States since weeks, this is one of the best hotel I've been!Brand new and very clean hotel.Staff is extremely professional, efficient and courteous.I booked for 2 nigths only while I changed my plan and asked for an extension of my stay; it has been done without any problem and at the same rate.I left the room for a short business visit around 8,00 AM returning before 11,00 AM and my room was already cleaned for that time!!!A great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r207152617-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>207152617</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Excellent Employee &amp; Stay at Baytown.</t>
+  </si>
+  <si>
+    <t>The purpose of this review is to provide you with a rave review of a young lady employed by the Holiday Inn.  Deniece Hinton proved her hospitality skills are up to par and beyond and was so busy with breakfast and taking care of people and their needs that I just wanted to be sure and give a great recommendation for her.I was impressed with her ability to run the hotel and her knowledge with the system at checkout time.  Her ability to communicate is extraordinaire.  She is certainly an impressive young woman and has the skills to go far in life in the travel and hospitality field.Thank you Holiday Inn  for being so insightful and hiring such an extraordinary person.  I certainly do appreciate her and Holiday Inn for another wonderful and successful stay at your hotel in Baytown.  The hotel is beautifully decorated and very clean.  The staff is extremely courteous.  It was an amazing experience. and my sister, daughter and I had a beautiful and calm experience.  I am truly grateful.Have a wonderful day!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>The purpose of this review is to provide you with a rave review of a young lady employed by the Holiday Inn.  Deniece Hinton proved her hospitality skills are up to par and beyond and was so busy with breakfast and taking care of people and their needs that I just wanted to be sure and give a great recommendation for her.I was impressed with her ability to run the hotel and her knowledge with the system at checkout time.  Her ability to communicate is extraordinaire.  She is certainly an impressive young woman and has the skills to go far in life in the travel and hospitality field.Thank you Holiday Inn  for being so insightful and hiring such an extraordinary person.  I certainly do appreciate her and Holiday Inn for another wonderful and successful stay at your hotel in Baytown.  The hotel is beautifully decorated and very clean.  The staff is extremely courteous.  It was an amazing experience. and my sister, daughter and I had a beautiful and calm experience.  I am truly grateful.Have a wonderful day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r205366849-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>205366849</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel stay!</t>
+  </si>
+  <si>
+    <t>We stayed here as a stop on out road trip. It was a very pleasant experience. Very clean, nicely furnished rooms as was the rest of the hotel. And pleasant, helpful staff. Would definitely stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here as a stop on out road trip. It was a very pleasant experience. Very clean, nicely furnished rooms as was the rest of the hotel. And pleasant, helpful staff. Would definitely stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r203398359-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203398359</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Incredible!!!!!</t>
+  </si>
+  <si>
+    <t>I travel a LOT for my job and this hotel was hands down one of the most pleasurable experiences I've ever had. Anything I needed the staff was there, from toiletries to office supplies. Anything that I didn't have in my murse, they were willing to help with. Now, this was not office depot, but basic supplies they had plenty of. They even started the continental breakfast an hour earlier than scheduled so me and my team could have something to eat before we started our day. BEST. HOTEL. EVER.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2014</t>
+  </si>
+  <si>
+    <t>I travel a LOT for my job and this hotel was hands down one of the most pleasurable experiences I've ever had. Anything I needed the staff was there, from toiletries to office supplies. Anything that I didn't have in my murse, they were willing to help with. Now, this was not office depot, but basic supplies they had plenty of. They even started the continental breakfast an hour earlier than scheduled so me and my team could have something to eat before we started our day. BEST. HOTEL. EVER.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r203141686-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203141686</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Excellent place to stay!!!</t>
+  </si>
+  <si>
+    <t>We had a most pleasurable experience at this hotel. The hotel itself is beautiful. The lobby and dining area are very warm and inviting, Our room was spacious, clean and very comfy bed and pillows. The front desk staff were very friendly and helpful. Brandi, Deniece, Lenora, Ashley, Gladys and Sarah were just amazing! We come to Baytown every year twice, for the NHRA races and this will be our hotel of choice in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle F, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded April 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2014</t>
+  </si>
+  <si>
+    <t>We had a most pleasurable experience at this hotel. The hotel itself is beautiful. The lobby and dining area are very warm and inviting, Our room was spacious, clean and very comfy bed and pillows. The front desk staff were very friendly and helpful. Brandi, Deniece, Lenora, Ashley, Gladys and Sarah were just amazing! We come to Baytown every year twice, for the NHRA races and this will be our hotel of choice in the future!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1498,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1530,2594 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>193</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>211</v>
+      </c>
+      <c r="X22" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>225</v>
+      </c>
+      <c r="X23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>251</v>
+      </c>
+      <c r="X27" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>251</v>
+      </c>
+      <c r="X28" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>274</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>275</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>301</v>
+      </c>
+      <c r="X33" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>309</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>310</v>
+      </c>
+      <c r="X34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>327</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X36" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>331</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>332</v>
+      </c>
+      <c r="J37" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" t="s">
+        <v>334</v>
+      </c>
+      <c r="L37" t="s">
+        <v>335</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>327</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>336</v>
+      </c>
+      <c r="X37" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J38" t="s">
+        <v>341</v>
+      </c>
+      <c r="K38" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s">
+        <v>343</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>344</v>
+      </c>
+      <c r="X38" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J39" t="s">
+        <v>349</v>
+      </c>
+      <c r="K39" t="s">
+        <v>350</v>
+      </c>
+      <c r="L39" t="s">
+        <v>351</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>352</v>
+      </c>
+      <c r="X39" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s">
+        <v>358</v>
+      </c>
+      <c r="L40" t="s">
+        <v>359</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>360</v>
+      </c>
+      <c r="X40" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_321.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_321.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r568684025-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>4054638</t>
+  </si>
+  <si>
+    <t>568684025</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>The little things killed it</t>
+  </si>
+  <si>
+    <t>My family of six stayed for the weekend.  I chose this hotel because there were 6 of us.  The room was fine - basic but appeared clean.  The problem was all the little things.  We told them there were 6 when we reserved.  Clearly there will be a need to use the hide a bed in the couch.  No sheets, blankets or pillows were provided.  No problem, I’ll just call down to the front desk.  No answer after 3 attempts.  I go down - two people are up front - huh?  I let them know what I need.  Here you go - I get sheets but no pillows.  Request for pillows - This takes another whole bunch of time to get.  Do others sleep without pillows?  We checked in with 6 but I don’t notice until the am that only got 3 towels.  I make due because we are in a hurry to get downstairs grab breakfast and go.  There is little hot food at 9 am on Sat am.  The two ladies working can’t keep up with the demand and don’t seem to really care.  At one point the older lady says, “we’re fine right now.”  I don’t think so?  This is supposed to be quick - not take all morning.  They would bring out two muffins for 10 people and they were quickly snapped up.  We didn’t bother with the breakfast the next day.  No toilet paper in...My family of six stayed for the weekend.  I chose this hotel because there were 6 of us.  The room was fine - basic but appeared clean.  The problem was all the little things.  We told them there were 6 when we reserved.  Clearly there will be a need to use the hide a bed in the couch.  No sheets, blankets or pillows were provided.  No problem, I’ll just call down to the front desk.  No answer after 3 attempts.  I go down - two people are up front - huh?  I let them know what I need.  Here you go - I get sheets but no pillows.  Request for pillows - This takes another whole bunch of time to get.  Do others sleep without pillows?  We checked in with 6 but I don’t notice until the am that only got 3 towels.  I make due because we are in a hurry to get downstairs grab breakfast and go.  There is little hot food at 9 am on Sat am.  The two ladies working can’t keep up with the demand and don’t seem to really care.  At one point the older lady says, “we’re fine right now.”  I don’t think so?  This is supposed to be quick - not take all morning.  They would bring out two muffins for 10 people and they were quickly snapped up.  We didn’t bother with the breakfast the next day.  No toilet paper in the downstairs bathroom when one of the kids uses it.  We get back late and find only 2 towels.  My husband goes downstairs to get more and is told they are out - they are all being washed.  They will send some up.  This is 9 am.  No one comes (throughout the rest of the morning).  We finally grab some off the maids cart.  Our room too, runs out of toilet paper - thank heavens they have Kleenex because obviously it will take an act of God to get any.  They also ran out of bottled water on Sat am.  Still none by Sunday checkout.  However the front desk girl has plenty of time to read a book!  Clearly, if you can’t afford supplies, you shouldn’t have a hotel.  Maybe staff should focus on trying to make sure the rooms (both public and private) are stocked before they break out a book!  I hate to give bad reviews, but this place (maybe the staff) sucked!  I would not stay here again nor would I recommend any one else does!  I would welcome a management response as we are award program members and feel like this was a poor example of your properties.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Zhan J, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>My family of six stayed for the weekend.  I chose this hotel because there were 6 of us.  The room was fine - basic but appeared clean.  The problem was all the little things.  We told them there were 6 when we reserved.  Clearly there will be a need to use the hide a bed in the couch.  No sheets, blankets or pillows were provided.  No problem, I’ll just call down to the front desk.  No answer after 3 attempts.  I go down - two people are up front - huh?  I let them know what I need.  Here you go - I get sheets but no pillows.  Request for pillows - This takes another whole bunch of time to get.  Do others sleep without pillows?  We checked in with 6 but I don’t notice until the am that only got 3 towels.  I make due because we are in a hurry to get downstairs grab breakfast and go.  There is little hot food at 9 am on Sat am.  The two ladies working can’t keep up with the demand and don’t seem to really care.  At one point the older lady says, “we’re fine right now.”  I don’t think so?  This is supposed to be quick - not take all morning.  They would bring out two muffins for 10 people and they were quickly snapped up.  We didn’t bother with the breakfast the next day.  No toilet paper in...My family of six stayed for the weekend.  I chose this hotel because there were 6 of us.  The room was fine - basic but appeared clean.  The problem was all the little things.  We told them there were 6 when we reserved.  Clearly there will be a need to use the hide a bed in the couch.  No sheets, blankets or pillows were provided.  No problem, I’ll just call down to the front desk.  No answer after 3 attempts.  I go down - two people are up front - huh?  I let them know what I need.  Here you go - I get sheets but no pillows.  Request for pillows - This takes another whole bunch of time to get.  Do others sleep without pillows?  We checked in with 6 but I don’t notice until the am that only got 3 towels.  I make due because we are in a hurry to get downstairs grab breakfast and go.  There is little hot food at 9 am on Sat am.  The two ladies working can’t keep up with the demand and don’t seem to really care.  At one point the older lady says, “we’re fine right now.”  I don’t think so?  This is supposed to be quick - not take all morning.  They would bring out two muffins for 10 people and they were quickly snapped up.  We didn’t bother with the breakfast the next day.  No toilet paper in the downstairs bathroom when one of the kids uses it.  We get back late and find only 2 towels.  My husband goes downstairs to get more and is told they are out - they are all being washed.  They will send some up.  This is 9 am.  No one comes (throughout the rest of the morning).  We finally grab some off the maids cart.  Our room too, runs out of toilet paper - thank heavens they have Kleenex because obviously it will take an act of God to get any.  They also ran out of bottled water on Sat am.  Still none by Sunday checkout.  However the front desk girl has plenty of time to read a book!  Clearly, if you can’t afford supplies, you shouldn’t have a hotel.  Maybe staff should focus on trying to make sure the rooms (both public and private) are stocked before they break out a book!  I hate to give bad reviews, but this place (maybe the staff) sucked!  I would not stay here again nor would I recommend any one else does!  I would welcome a management response as we are award program members and feel like this was a poor example of your properties.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r536217701-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>536217701</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>The property was very nice.  Breakfast had many choices.   The refrigerator and microwave in the room was very helpful.  Pool looked inviting although it was outside.  Pillows were comfortable as was the comforter.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r552212411-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>4054638</t>
-  </si>
-  <si>
     <t>552212411</t>
   </si>
   <si>
@@ -198,12 +249,6 @@
     <t>We had 8 of us in for business so didn’t visit pool or workout facilities. Check in was bit long but fine. Skip the free breakfast unless you’re grabbing a cinnamon roll. Coffee station stayed out of half &amp; half along with milk. Beds were comfy. MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded October 21, 2017</t>
   </si>
   <si>
@@ -228,7 +273,34 @@
     <t>This is exactly why we love Holiday Inn Express!  When we are traveling, they are always consistently clean and have well-appointed rooms and very comfortable beds.  The front desk staff was very friendly and efficient with a quick and painless check in.  We checked in late after a long day of driving.  I would stay here again!</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r528715218-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>528715218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable </t>
+  </si>
+  <si>
+    <t>This is exactly why we love HI Express when traveling-they are clean, well-appointed rooms with very comfortable beds!  This one was no exception.  The front desk staff was very friendly as well!  We checked in later in the evening after a long day of driving and it was easy and quick!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r508566438-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>508566438</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here twice, both times were for 3 months. The rooms are clean and the beds are comfy. The staff was great, especially Martha and Mr. Kent. Both of them always went out of their way to be helpful, whether it was giving directions, suggesting places to visit, or just to lift your spirits if you were feeling down.  I highly recommend staying here.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r502748706-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
@@ -294,6 +366,51 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r459344984-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>459344984</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>So so</t>
+  </si>
+  <si>
+    <t>My second visit at this hotel. Stayed here, because proximity to work and food places were good. Hotel needs updating. Staff is nice and room was clean for most part. Room felt humid and smelled slightly moldy. No fan in bathroom and tp holder artificially attached to wall. TV is annoying to connect to satellite each time you use, must toggle between tv button &amp; satellite button.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>My second visit at this hotel. Stayed here, because proximity to work and food places were good. Hotel needs updating. Staff is nice and room was clean for most part. Room felt humid and smelled slightly moldy. No fan in bathroom and tp holder artificially attached to wall. TV is annoying to connect to satellite each time you use, must toggle between tv button &amp; satellite button.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r457016972-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>457016972</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>This is a great stop if you are in Baytown.  The staff is great, the rooms are clean and comfortable, and it is in a safe area.  The parking is well lit also.  We always try to stay here when passing through town!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r448029303-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -330,9 +447,6 @@
     <t>Baytown has only a few quality hotels. This is one of them.Clean, modern, safe. Staff is helpful.Simple but acceptable breakfast, WIFI works, rooms are fine too.The area is not really appealing as is just one block off the freeway.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded October 13, 2016</t>
   </si>
   <si>
@@ -369,6 +483,60 @@
     <t>After a rough few days of loosing my father in a car accident we checked in at 4am and Gladys was the most remarkable and helpful lady ever. She was very sympathetic and accommodated us when other places wouldn't. She was a blessing in disguise because we didn't have to worry about only getting a partial amount of sleep before having to check out. Everyone here was amazing and Martha made sure breakfast was fully stocked for us and got us everything we needed. We would recommend this hotel to anyone! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r412567926-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>412567926</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Service was excellent. Martha was on top of breakfast with nothing left unattended                                                               Room was nice and the AC actually went below 65. Very nice.       I would recommend this hotel to anyone. Even had bacon for breakfast!!! Jddhdiss z. SgkstosyoskgOtgHxgkJsmgshdaosita ozkfKgMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Service was excellent. Martha was on top of breakfast with nothing left unattended                                                               Room was nice and the AC actually went below 65. Very nice.       I would recommend this hotel to anyone. Even had bacon for breakfast!!! Jddhdiss z. SgkstosyoskgOtgHxgkJsmgshdaosita ozkfKgMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r406246467-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>406246467</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>overnight stay</t>
+  </si>
+  <si>
+    <t>Recently stayed here with family for an overnight stay. Staff was friendly, rooms were clean and bed was comfortable.  Water pressure could be better.  Breakfast was good and the hotel is updated in modern decor.  Parking was a bit of an issue with the big rigs taking up a lot of the parking spots but there is parking next door in the shopping center.  Good for an overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Zhan J, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Recently stayed here with family for an overnight stay. Staff was friendly, rooms were clean and bed was comfortable.  Water pressure could be better.  Breakfast was good and the hotel is updated in modern decor.  Parking was a bit of an issue with the big rigs taking up a lot of the parking spots but there is parking next door in the shopping center.  Good for an overnight stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r404947320-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -390,9 +558,6 @@
     <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded August 25, 2016</t>
   </si>
   <si>
-    <t>Responded August 25, 2016</t>
-  </si>
-  <si>
     <t>We have now stayed at this new hotel a couple of times. On this visit we really enjoyed our three day stay. Since the place is less than a year old, it is fresh and clean. The room was well serviced and the bed was wonderful. My interaction with several staff members was excellent. The breakfast was great and the gentleman working there went out of his way to ensure that I was happy and satisfied.More</t>
   </si>
   <si>
@@ -450,6 +615,57 @@
     <t>My Husband and I stayed at the Holiday Inn Express Suits in Baytown for the first time. We stayed for a week under sad circumstances and our accommodation was booked by friends. We had a room on the third floor away from the street which was very quiet. The room was large with a comfortable bed, reasonable bathroom with good water pressure. Coffee making facilities and a bar fridge were included. The area felt safe and the hotel clean. Our problem was with the staff. At breakfast the first few days it was difficult to hear our selves think while the front desk staff carried on loud conversations with each other. The staff member looking after breakfast was either walking around singing loudly to herself or joining in the conversation. Several times although our room was cleaned and the bed made, the coffee and cups were not replenished and we would have to go down stairs to collect more. The final straw was coming back from a dear friends funeral to find a note on the unmade bed stating it could not be made due to personal items in the bed. Those personal items were two pillows! Goodness knows how difficult it is to remove two pillows, make the bed and then replace the pillows. I would recommend this hotel but be aware the service is inconsistent.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r362165065-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>362165065</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Excellent HI Express</t>
+  </si>
+  <si>
+    <t>Room was very nice - I had a large king room. Everything was in great condition and clean.  Hotel staff were very friendly and breakfast was excellent.  Room was minimalist with no closet, just a small hanging alcove without a door. There was one cabinet that contained the microwave, refrigerator and the only two dresser drawers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Zhan J, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Room was very nice - I had a large king room. Everything was in great condition and clean.  Hotel staff were very friendly and breakfast was excellent.  Room was minimalist with no closet, just a small hanging alcove without a door. There was one cabinet that contained the microwave, refrigerator and the only two dresser drawers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r355763175-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>355763175</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Decent Stay.</t>
+  </si>
+  <si>
+    <t>Rooms were clean but room decor is a bit drab for my taste. The major problem I had were the room keys. They kept deactivating. First, We were told it was because of the cold. Than we were told it was bec we kept it near our cellphones. I travel a few time a year and have never even heard of this problem anywhere else. It a very annoying problem that should be fixed.         On a positive note, they always had yogurts and drinks available. Nice staff. Good WiFi.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Rooms were clean but room decor is a bit drab for my taste. The major problem I had were the room keys. They kept deactivating. First, We were told it was because of the cold. Than we were told it was bec we kept it near our cellphones. I travel a few time a year and have never even heard of this problem anywhere else. It a very annoying problem that should be fixed.         On a positive note, they always had yogurts and drinks available. Nice staff. Good WiFi.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r352505398-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -525,6 +741,60 @@
     <t>I stayed here from November - February with about 13 other co-workers. And this hotel is by far the worst one I've stayed at. I travel constantly around 10 to 11 months a year and we stay at Holiday Inn 90% of the time. And they are generally myou favorite hotel, but this one is the worst ever. The house keeping is under par if they even show up and the general manager Mr. Zon or however you spell it, is a total waste of time and won't help anyone with anything or he is just not very smartMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r341226393-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>341226393</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Perfect stay!</t>
+  </si>
+  <si>
+    <t>Stayed here for one night while traveling through Texas. We are fans of Holiday Inn Express and this location did not disappoint. Friendly and welcoming check-in, clean room, comfy beds. WiFi was fast and consistent. Lots of parking and nearby restaurants. Will definitely stay here again next time we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Nathan O, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for one night while traveling through Texas. We are fans of Holiday Inn Express and this location did not disappoint. Friendly and welcoming check-in, clean room, comfy beds. WiFi was fast and consistent. Lots of parking and nearby restaurants. Will definitely stay here again next time we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r331392766-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>331392766</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Nice, new hotel</t>
+  </si>
+  <si>
+    <t>Great stay on a business trip. Just off of I-10, looked brand new. Pleasant staff, clean room, good breakfast. Free winfinthroughout the property. Plenty of parking. Lots of restaurants in the area. Very satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded December 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2015</t>
+  </si>
+  <si>
+    <t>Great stay on a business trip. Just off of I-10, looked brand new. Pleasant staff, clean room, good breakfast. Free winfinthroughout the property. Plenty of parking. Lots of restaurants in the area. Very satisfied.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r321946270-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -597,9 +867,6 @@
     <t>Made a reservation for double bed ... When I arrived at the Hotel.. They apologized for the mistake online No double avaible... So they upgraded me to a Suite... No charge... Hotel was Clean... Room was really nice!!!! Quite!!! Just an all around pleasent stay.... I would return anytime!!!!! Very reasonable prices too!!!!! The stay was very sweet !!!!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded July 10, 2015</t>
   </si>
   <si>
@@ -609,30 +876,72 @@
     <t>Made a reservation for double bed ... When I arrived at the Hotel.. They apologized for the mistake online No double avaible... So they upgraded me to a Suite... No charge... Hotel was Clean... Room was really nice!!!! Quite!!! Just an all around pleasent stay.... I would return anytime!!!!! Very reasonable prices too!!!!! The stay was very sweet !!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r284363413-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>284363413</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Fourth stay</t>
+  </si>
+  <si>
+    <t>Nice hotel and friendly courteous Staff. Get room overlooking the pool. Gladys was very friendly and a pleasure to talk to. Big variety of restaurants in the area. Located between the airport and Houston..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel and friendly courteous Staff. Get room overlooking the pool. Gladys was very friendly and a pleasure to talk to. Big variety of restaurants in the area. Located between the airport and Houston..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r274912748-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>274912748</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We stayed one night, traveling by motorcycle.  Heavy, heavy rain with flooding all over.  After a day of riding in that weather it was great to relax in the hotel.  Fast check in, parked the Goldwing right near the front door under the canopy.  Good breakfast, except the pancake machine had broken.  So we had the cinnamon rolls, which are always good.  I definitely would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>We stayed one night, traveling by motorcycle.  Heavy, heavy rain with flooding all over.  After a day of riding in that weather it was great to relax in the hotel.  Fast check in, parked the Goldwing right near the front door under the canopy.  Good breakfast, except the pancake machine had broken.  So we had the cinnamon rolls, which are always good.  I definitely would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r274834885-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
     <t>274834885</t>
   </si>
   <si>
-    <t>05/26/2015</t>
-  </si>
-  <si>
     <t>QUick Gwt-Away</t>
   </si>
   <si>
     <t>Great Holiday Inn Express very friendly front desk and breakfast bar attendant. Will definitely stay at this location in he future on trips to this area. Clean rooms and very well designed.  Highly recommend this property. Platinum Elite Business TravelerMoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded June 8, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 8, 2015</t>
-  </si>
-  <si>
     <t>Great Holiday Inn Express very friendly front desk and breakfast bar attendant. Will definitely stay at this location in he future on trips to this area. Clean rooms and very well designed.  Highly recommend this property. Platinum Elite Business TravelerMore</t>
   </si>
   <si>
@@ -675,6 +984,57 @@
     <t>We stayed here during a project in Port Arthur. The rooms were very clean. All the equipment worked well. During the time I was there, the pool was not yet opened so really can't rate that. Dining area was very nice with a free, hot complimentary breakfast.   Staff was very friendly and motel is located very near dining and shoppingMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r272256988-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>272256988</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Great hotel in Baytown TX</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel several times in the past and continues to appreciate the great infrastructure and thoughtfulness in planning of all the features. from the fully functional business centre to the smartly decorated breakfast room, everything flows elegantly to make this truly a home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel several times in the past and continues to appreciate the great infrastructure and thoughtfulness in planning of all the features. from the fully functional business centre to the smartly decorated breakfast room, everything flows elegantly to make this truly a home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r270966468-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>270966468</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Wonderful as usual</t>
+  </si>
+  <si>
+    <t>This hotel lived up to the wonderful reputation that is associated with Holiday Inn Express. Staff was incredible, Room was spacious and comfortable. Bed Was great. Grounds were perfectly manicured. Breakfast was more than expected. Great stayMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>This hotel lived up to the wonderful reputation that is associated with Holiday Inn Express. Staff was incredible, Room was spacious and comfortable. Bed Was great. Grounds were perfectly manicured. Breakfast was more than expected. Great stayMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r270827057-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -693,12 +1053,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 12, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 12, 2015</t>
-  </si>
-  <si>
     <t>this negative review would never have been written if management had only contacted me. i left my name and number at the front desk. NO RESPONSE first issue....internet is dial up speed do not expect to get any work done at the hotel. i hotspotted from my phone. even after several calls with holiday inns tech support. waste of my time to spend a hour on the phone and nothing happenssecond issue....elevator is out of service for 4 days. this is not a small town in the middle of nowhere.  repair men are all call 24/7 around here. third....really takes you two days to put a out of order sign by the elevator. did not even put one by the front door. did you inform your guest before or after they checked in???fourth issue.....tv hardly worked. front desk had to constantly reset the system. i had to reset it in room. i just quit. another waste of time. it just did not work.plus side the room is clean and the bed is comfortable. i am sure in a few years this will no longer be true.IF YOU HAVE ISSUE DO NOT EXPECT MANAGEMENT TO CONTACT YOU OR FIX THEM.  i am sure a generic response from management will follow asking to contact them. you should have done that while i was a guest at the hotel.More</t>
   </si>
   <si>
@@ -744,9 +1098,6 @@
     <t>The WI-FI here is AWFUL! Even the staff was apologizing. TV didn't work - DISH Network had to be rebooted by staff - took about an hour overall and it seemed they'd done this many times before (why not just fix it). Overall, not the best. I wanted it to be great, then good, then, ok, and meh. Not my favorite. Again, it is NEW so...This review was a chore in itself - took about 45 minutes because of the WiFI.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded April 2, 2015</t>
   </si>
   <si>
@@ -756,6 +1107,48 @@
     <t>The WI-FI here is AWFUL! Even the staff was apologizing. TV didn't work - DISH Network had to be rebooted by staff - took about an hour overall and it seemed they'd done this many times before (why not just fix it). Overall, not the best. I wanted it to be great, then good, then, ok, and meh. Not my favorite. Again, it is NEW so...This review was a chore in itself - took about 45 minutes because of the WiFI.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r262774543-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>262774543</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel for business travelers</t>
+  </si>
+  <si>
+    <t>Have stayed here 3 of the last 4 weeks on business.  Conveniently located to I-10 and local restaurants.   Hotel is a good place to stay for business travelers and offers free wi-fi in the rooms.   Bed was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed here 3 of the last 4 weeks on business.  Conveniently located to I-10 and local restaurants.   Hotel is a good place to stay for business travelers and offers free wi-fi in the rooms.   Bed was very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r262555952-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>262555952</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Above and Beyond Expectations</t>
+  </si>
+  <si>
+    <t>Many hotels have stock on-line photos and when you arrive, you get something totally different, but not the case with this hotel. The lobby was beautiful and the room was large, spacious and very clean, as well as very nicely decorated. The hotel staff were all friendly and welcoming. Many hotels advertise a full hot breakfast, which normally isn't the case, but the Holiday Inn Express Suites, in Baytown, TX, actually comes through. They have a wide array of breakfast items, which included: turkey sausage, bacon, eggs, biscuits and gravy to just name a few. The price wasn't bad either. My only two complaints, are the lack of a good Wi-fi signal and the inability to close the curtains to block out the light. We were on the 4th floor and the signal was poor. We traveled over 15 hours from South Carolina and wanted to sleep in a little later, and the light was flooding the room and the curtains were not able to be closed.Overall, I highly recommend this hotel, to anyone! Keep up the great job and I can't wait to visit again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Many hotels have stock on-line photos and when you arrive, you get something totally different, but not the case with this hotel. The lobby was beautiful and the room was large, spacious and very clean, as well as very nicely decorated. The hotel staff were all friendly and welcoming. Many hotels advertise a full hot breakfast, which normally isn't the case, but the Holiday Inn Express Suites, in Baytown, TX, actually comes through. They have a wide array of breakfast items, which included: turkey sausage, bacon, eggs, biscuits and gravy to just name a few. The price wasn't bad either. My only two complaints, are the lack of a good Wi-fi signal and the inability to close the curtains to block out the light. We were on the 4th floor and the signal was poor. We traveled over 15 hours from South Carolina and wanted to sleep in a little later, and the light was flooding the room and the curtains were not able to be closed.Overall, I highly recommend this hotel, to anyone! Keep up the great job and I can't wait to visit again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r261781763-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -771,12 +1164,6 @@
     <t>I use the IHG brands exclusively for my business and on most of my pleasure trips. I left a review on the hotels site that was rejected, and I'm still un-sure why?The property is new, staff was helpful and friendly, clean room, very nice in the great room for breakfast.My 2 issues I have, that I feel i was REJECTED for are:#1 The price of this hotel was high, i.e. the same brands and other in a close by city on the beach are $50 cheaper. This is most likely due to the Baytown inn being close to large plants and refineries. This brings up my next complaint. #2 My stay was during a rainy period, (Crews were unable to work); same crews were monopolising &amp; trashing the lobby entrance with mud and laying on hotel furniture at front desk. Not the most savory people in the world.MoreShow less</t>
   </si>
   <si>
-    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded March 30, 2015</t>
-  </si>
-  <si>
-    <t>Responded March 30, 2015</t>
-  </si>
-  <si>
     <t>I use the IHG brands exclusively for my business and on most of my pleasure trips. I left a review on the hotels site that was rejected, and I'm still un-sure why?The property is new, staff was helpful and friendly, clean room, very nice in the great room for breakfast.My 2 issues I have, that I feel i was REJECTED for are:#1 The price of this hotel was high, i.e. the same brands and other in a close by city on the beach are $50 cheaper. This is most likely due to the Baytown inn being close to large plants and refineries. This brings up my next complaint. #2 My stay was during a rainy period, (Crews were unable to work); same crews were monopolising &amp; trashing the lobby entrance with mud and laying on hotel furniture at front desk. Not the most savory people in the world.More</t>
   </si>
   <si>
@@ -786,9 +1173,6 @@
     <t>261739177</t>
   </si>
   <si>
-    <t>Very nice</t>
-  </si>
-  <si>
     <t>Very nice Hotel with freindly staff. Lots of places to eat close by. Breakfast was good, opened early for those that had to leave for work. Fresh fruit would have been nice in lobby in the evenings, but, everything was very nice and clean.MoreShow less</t>
   </si>
   <si>
@@ -810,6 +1194,51 @@
     <t>The lobby and all public areas were clean and in good repair. The room was clean and smelled fresh. My room was a bit noisy from the neighbors and the hallway. While laying in bed I could hear full conversations outside. I didn't get to taste the breakfast but it smelled delicious.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r260751170-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>260751170</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Great facility, great service</t>
+  </si>
+  <si>
+    <t>We booked this location on our way home from Florida based on our recent experience the night before with the same chain.  We were rewarded with consistent facility upkeep, a clean and comfortable room, and friendly, professional service.  And I love the cinnamon rolls!  The breakfast service was top notch, especially the staff that paid attention to what was being consumed and anticipated refilling needs.  We would definitely choose this hotel again if needing to stay overnight in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We booked this location on our way home from Florida based on our recent experience the night before with the same chain.  We were rewarded with consistent facility upkeep, a clean and comfortable room, and friendly, professional service.  And I love the cinnamon rolls!  The breakfast service was top notch, especially the staff that paid attention to what was being consumed and anticipated refilling needs.  We would definitely choose this hotel again if needing to stay overnight in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r259778147-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>259778147</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>poor customer service</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for a family funeral.  After arriving, we secured 3 rooms with a credit card.  Upon check in we mentioned the travelers in one room would be checking in late.  When they arrived, their room had been given away ! Yes, after it had been secured with a credit card. The front desk clerk had no options and no other rooms were available. We were offered reward points and that was it ! After speaking with the front desk clerk again, we were compensated for one of our rooms. They were over booked and actually did not seem to care that our room was secured to a credit card, yet given to another guest.  We will not be staying at this location in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandi K, Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded March 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2015</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for a family funeral.  After arriving, we secured 3 rooms with a credit card.  Upon check in we mentioned the travelers in one room would be checking in late.  When they arrived, their room had been given away ! Yes, after it had been secured with a credit card. The front desk clerk had no options and no other rooms were available. We were offered reward points and that was it ! After speaking with the front desk clerk again, we were compensated for one of our rooms. They were over booked and actually did not seem to care that our room was secured to a credit card, yet given to another guest.  We will not be staying at this location in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r245635034-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -867,9 +1296,6 @@
     <t>The staff was exceptionally friendly and professional. The rooms were extremely spacious and clean. The hot breakfast was great, along with the nice lady that handles that department. My family and I will be back again. Garth Road has a ton of shopping and eating places, which was very accessible within less of a mile from the hotel. Kudos to the staff for their 24 hour service with a smile!MoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded November 16, 2014</t>
   </si>
   <si>
@@ -879,6 +1305,57 @@
     <t>The staff was exceptionally friendly and professional. The rooms were extremely spacious and clean. The hot breakfast was great, along with the nice lady that handles that department. My family and I will be back again. Garth Road has a ton of shopping and eating places, which was very accessible within less of a mile from the hotel. Kudos to the staff for their 24 hour service with a smile!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r238380670-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>238380670</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Brand new location. Clean and quite</t>
+  </si>
+  <si>
+    <t>Traveling and staying here for 4 nights. Checkin was fast and front desk is friendly. Staff here is nice and breakfast is free. Price is average for the area in my opinion. I would stay here again if back in this area for business. It's 30 min drive to downtown Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Traveling and staying here for 4 nights. Checkin was fast and front desk is friendly. Staff here is nice and breakfast is free. Price is average for the area in my opinion. I would stay here again if back in this area for business. It's 30 min drive to downtown Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r233379481-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>233379481</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>They Got it All Right.</t>
+  </si>
+  <si>
+    <t>This was just a quick overnight stay on our way to New Orleans, and it was fantastic. Pro's: Nice, new spacious lobby. Friendly front desk staff. The room was spacious. Great beds. Very clean. Nice big bathroom, great fixtures. Mini-fridge/microwave. Nice pool (though it's kind of in the parking lot) Laundry facility. GREAT free breakfast - seriously really fantastic, no need to go out.Con's: The only *minor* complaint is that the internet was a little spotty, but I think they were working on it while we were there. Bottom line, if you are looking for a place, this a great option.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded October 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2014</t>
+  </si>
+  <si>
+    <t>This was just a quick overnight stay on our way to New Orleans, and it was fantastic. Pro's: Nice, new spacious lobby. Friendly front desk staff. The room was spacious. Great beds. Very clean. Nice big bathroom, great fixtures. Mini-fridge/microwave. Nice pool (though it's kind of in the parking lot) Laundry facility. GREAT free breakfast - seriously really fantastic, no need to go out.Con's: The only *minor* complaint is that the internet was a little spotty, but I think they were working on it while we were there. Bottom line, if you are looking for a place, this a great option.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r230414986-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1434,57 @@
     <t>I stayed at this hotel during the end of June and found it an excellent choice. The rooms are spacious and well appointed. The breakfast consists of a good selection, served during a user friendly time and the business center consists of brand new computers. The location is central to several other amenities that makes it a great selection.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r219911626-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>219911626</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Nice.</t>
+  </si>
+  <si>
+    <t>This was a great stay. My family and I enjoyed our stay here. Friendly staff. Clean and beautiful rooms. Clean out we vicinity to lots of stores. Clean pool. Good continental breakfast. Awesome stay. Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>This was a great stay. My family and I enjoyed our stay here. Friendly staff. Clean and beautiful rooms. Clean out we vicinity to lots of stores. Clean pool. Good continental breakfast. Awesome stay. Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r214502228-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>214502228</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not quite ready for prime time </t>
+  </si>
+  <si>
+    <t>It's brand new and pretty nice. But not quite ready for primetime. The room keys didn't work, had to go back to the desk to get them rekeyed. The brand-new sofa already looks beaten-up and drab. All of that was tolerable though. The biggest problem was no TV. They are using (or should I say, trying to use) Dish TV --which in my experience is a disaster for hotels. I was able to get a TV signal for about two hours in the morning--the rest of the visit I had no TV. Gotta have my CNN. The upside was that the staff was extremely understanding and tried to be helpful. And the bed and pillows were quite comfortable. I'll stay again only when my first choice, the Spring Hill suites, is full. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>It's brand new and pretty nice. But not quite ready for primetime. The room keys didn't work, had to go back to the desk to get them rekeyed. The brand-new sofa already looks beaten-up and drab. All of that was tolerable though. The biggest problem was no TV. They are using (or should I say, trying to use) Dish TV --which in my experience is a disaster for hotels. I was able to get a TV signal for about two hours in the morning--the rest of the visit I had no TV. Gotta have my CNN. The upside was that the staff was extremely understanding and tried to be helpful. And the bed and pillows were quite comfortable. I'll stay again only when my first choice, the Spring Hill suites, is full. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r209072590-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1563,54 @@
     <t>The purpose of this review is to provide you with a rave review of a young lady employed by the Holiday Inn.  Deniece Hinton proved her hospitality skills are up to par and beyond and was so busy with breakfast and taking care of people and their needs that I just wanted to be sure and give a great recommendation for her.I was impressed with her ability to run the hotel and her knowledge with the system at checkout time.  Her ability to communicate is extraordinaire.  She is certainly an impressive young woman and has the skills to go far in life in the travel and hospitality field.Thank you Holiday Inn  for being so insightful and hiring such an extraordinary person.  I certainly do appreciate her and Holiday Inn for another wonderful and successful stay at your hotel in Baytown.  The hotel is beautifully decorated and very clean.  The staff is extremely courteous.  It was an amazing experience. and my sister, daughter and I had a beautiful and calm experience.  I am truly grateful.Have a wonderful day!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r206361950-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>206361950</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Best Hotel in Baytown TX</t>
+  </si>
+  <si>
+    <t>Brand new and recently opened they took care of at least 50 guests for our event at Royal Purple Raceway.  The reviews from everyone were stellar.  We really did get 1st class treatment and booking was made easy for us as the system was being created for the opening.  The parking lot is large and very easy in and out with lots of great restaurants within blocks.  It was my pleasure to work with them on group bookings and they will be my first call for our next event.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Brand new and recently opened they took care of at least 50 guests for our event at Royal Purple Raceway.  The reviews from everyone were stellar.  We really did get 1st class treatment and booking was made easy for us as the system was being created for the opening.  The parking lot is large and very easy in and out with lots of great restaurants within blocks.  It was my pleasure to work with them on group bookings and they will be my first call for our next event.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r206200836-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>206200836</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Beyond my expectations-thank you!</t>
+  </si>
+  <si>
+    <t>What a great stay!  The weekend was awesome, the hotel was no drama at all and actually made the whole weekend even better.  Staff is extremely professional, courteous and seemed genuinely interested in taking care of all our needs.  I felt like a VIP in some swanky high end expensive hotel, they were so good to us. Very clean, very organized, lobby was gorgeous, free continental breakfast was REALLY good.  I'm now hooked and we will definitely be back.  Thanks to the staff - keep up the great work! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2014</t>
+  </si>
+  <si>
+    <t>What a great stay!  The weekend was awesome, the hotel was no drama at all and actually made the whole weekend even better.  Staff is extremely professional, courteous and seemed genuinely interested in taking care of all our needs.  I felt like a VIP in some swanky high end expensive hotel, they were so good to us. Very clean, very organized, lobby was gorgeous, free continental breakfast was REALLY good.  I'm now hooked and we will definitely be back.  Thanks to the staff - keep up the great work! :)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4054638-r205366849-Holiday_Inn_Express_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -1048,12 +1624,6 @@
   </si>
   <si>
     <t>We stayed here as a stop on out road trip. It was a very pleasant experience. Very clean, nicely furnished rooms as was the rest of the hotel. And pleasant, helpful staff. Would definitely stay here again!!MoreShow less</t>
-  </si>
-  <si>
-    <t>Nathan O, General Manager at Holiday Inn Express Suites Baytown, responded to this reviewResponded May 19, 2014</t>
-  </si>
-  <si>
-    <t>Responded May 19, 2014</t>
   </si>
   <si>
     <t>We stayed here as a stop on out road trip. It was a very pleasant experience. Very clean, nicely furnished rooms as was the rest of the hotel. And pleasant, helpful staff. Would definitely stay here again!!More</t>
@@ -1641,8 +2211,12 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1653,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1675,7 +2249,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1684,25 +2258,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1713,14 +2287,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1736,35 +2306,31 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1774,10 +2340,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1793,7 +2363,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1802,25 +2372,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1875,13 +2445,13 @@
         <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1911,34 +2481,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1952,7 +2522,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1968,48 +2538,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>93</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -2025,58 +2599,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
         <v>99</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>104</v>
-      </c>
       <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -2092,34 +2660,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
         <v>108</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>109</v>
       </c>
-      <c r="J10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" t="s">
-        <v>111</v>
-      </c>
-      <c r="L10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2130,14 +2698,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" t="s">
-        <v>115</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -2153,7 +2717,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2162,49 +2726,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>123</v>
-      </c>
-      <c r="X11" t="s">
-        <v>124</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -2220,7 +2774,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2229,47 +2783,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -2285,7 +2835,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2294,25 +2844,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2323,14 +2873,10 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>141</v>
-      </c>
-      <c r="X13" t="s">
-        <v>142</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2346,7 +2892,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2355,25 +2901,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2384,14 +2930,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>151</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -2407,7 +2949,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2416,49 +2958,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -2474,7 +3016,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2483,25 +3025,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2513,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
@@ -2535,7 +3077,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2544,49 +3086,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -2602,7 +3138,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2611,32 +3147,32 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
+      <c r="R18" t="n">
         <v>4</v>
       </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>4</v>
@@ -2645,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
@@ -2667,7 +3203,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2676,43 +3212,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>193</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -2728,7 +3270,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2737,29 +3279,27 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
@@ -2773,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
@@ -2795,7 +3335,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2804,47 +3344,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
@@ -2860,7 +3396,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2869,38 +3405,34 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
         <v>4</v>
       </c>
-      <c r="N22" t="s">
-        <v>202</v>
-      </c>
-      <c r="O22" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -2909,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="X22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -2931,7 +3463,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2940,49 +3472,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
         <v>3</v>
       </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
@@ -2998,7 +3528,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3007,49 +3537,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
@@ -3065,7 +3589,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3074,43 +3598,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -3126,7 +3656,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3135,47 +3665,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>98</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="X26" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -3191,7 +3717,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3200,32 +3726,34 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3234,13 +3762,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="X27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
@@ -3256,7 +3784,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3265,32 +3793,34 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3299,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="X28" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
@@ -3321,54 +3851,58 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>264</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>265</v>
-      </c>
-      <c r="J29" t="s">
-        <v>266</v>
-      </c>
-      <c r="K29" t="s">
-        <v>267</v>
-      </c>
-      <c r="L29" t="s">
-        <v>268</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>265</v>
+      </c>
+      <c r="X29" t="s">
+        <v>266</v>
+      </c>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
@@ -3384,46 +3918,44 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
         <v>269</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>270</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>271</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>272</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>273</v>
       </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>274</v>
       </c>
-      <c r="O30" t="s">
-        <v>98</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
         <v>4</v>
       </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3475,38 +4007,28 @@
         <v>5</v>
       </c>
       <c r="N31" t="s">
+        <v>230</v>
+      </c>
+      <c r="O31" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
         <v>283</v>
       </c>
-      <c r="O31" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
-      <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>284</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>285</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="32">
@@ -3522,52 +4044,56 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>287</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>288</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>289</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>290</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>291</v>
       </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>292</v>
-      </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
         <v>293</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>294</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="33">
@@ -3583,43 +4109,41 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
         <v>296</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>297</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>298</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>299</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>300</v>
       </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+      <c r="O33" t="s">
+        <v>137</v>
+      </c>
       <c r="P33" t="n">
         <v>5</v>
       </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3662,44 +4186,46 @@
         <v>305</v>
       </c>
       <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
         <v>306</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>307</v>
       </c>
-      <c r="L34" t="s">
-        <v>308</v>
-      </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="X34" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
@@ -3715,47 +4241,41 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
         <v>313</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>314</v>
-      </c>
-      <c r="J35" t="s">
-        <v>315</v>
-      </c>
-      <c r="K35" t="s">
-        <v>316</v>
-      </c>
-      <c r="L35" t="s">
-        <v>317</v>
-      </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -3764,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="X35" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
@@ -3786,7 +4306,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3795,34 +4315,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -3835,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="X36" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="Y36" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
@@ -3857,7 +4377,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3866,25 +4386,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3892,12 +4412,8 @@
       <c r="Q37" t="n">
         <v>5</v>
       </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -3906,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="X37" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38">
@@ -3928,7 +4444,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3937,34 +4453,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="N38" t="s">
+        <v>335</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -3973,13 +4489,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="X38" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39">
@@ -3995,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4004,49 +4520,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>344</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="X39" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="Y39" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
@@ -4062,7 +4578,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4071,53 +4587,1763 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K40" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
+        <v>352</v>
+      </c>
+      <c r="X40" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
         <v>360</v>
       </c>
-      <c r="X40" t="s">
+      <c r="X41" t="s">
         <v>361</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Y41" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>335</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>370</v>
+      </c>
+      <c r="J43" t="s">
+        <v>371</v>
+      </c>
+      <c r="K43" t="s">
+        <v>372</v>
+      </c>
+      <c r="L43" t="s">
+        <v>373</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>335</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>374</v>
+      </c>
+      <c r="X43" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>378</v>
+      </c>
+      <c r="J44" t="s">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s">
+        <v>380</v>
+      </c>
+      <c r="L44" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>335</v>
+      </c>
+      <c r="O44" t="s">
+        <v>137</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>374</v>
+      </c>
+      <c r="X44" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>383</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>335</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>374</v>
+      </c>
+      <c r="X45" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>388</v>
+      </c>
+      <c r="J46" t="s">
+        <v>379</v>
+      </c>
+      <c r="K46" t="s">
+        <v>389</v>
+      </c>
+      <c r="L46" t="s">
+        <v>390</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>335</v>
+      </c>
+      <c r="O46" t="s">
+        <v>161</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>374</v>
+      </c>
+      <c r="X46" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" t="s">
+        <v>396</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>397</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>374</v>
+      </c>
+      <c r="X47" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>335</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>404</v>
+      </c>
+      <c r="X48" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>407</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>408</v>
+      </c>
+      <c r="J49" t="s">
+        <v>409</v>
+      </c>
+      <c r="K49" t="s">
+        <v>410</v>
+      </c>
+      <c r="L49" t="s">
+        <v>411</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>412</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>413</v>
+      </c>
+      <c r="J50" t="s">
+        <v>414</v>
+      </c>
+      <c r="K50" t="s">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s">
+        <v>416</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>417</v>
+      </c>
+      <c r="O50" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>418</v>
+      </c>
+      <c r="X50" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>422</v>
+      </c>
+      <c r="J51" t="s">
+        <v>423</v>
+      </c>
+      <c r="K51" t="s">
+        <v>424</v>
+      </c>
+      <c r="L51" t="s">
+        <v>425</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>397</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>426</v>
+      </c>
+      <c r="X51" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>429</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>430</v>
+      </c>
+      <c r="J52" t="s">
+        <v>431</v>
+      </c>
+      <c r="K52" t="s">
+        <v>432</v>
+      </c>
+      <c r="L52" t="s">
+        <v>433</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>397</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>434</v>
+      </c>
+      <c r="X52" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>437</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>438</v>
+      </c>
+      <c r="J53" t="s">
+        <v>439</v>
+      </c>
+      <c r="K53" t="s">
+        <v>440</v>
+      </c>
+      <c r="L53" t="s">
+        <v>441</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>442</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>443</v>
+      </c>
+      <c r="X53" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>446</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>447</v>
+      </c>
+      <c r="J54" t="s">
+        <v>448</v>
+      </c>
+      <c r="K54" t="s">
+        <v>449</v>
+      </c>
+      <c r="L54" t="s">
+        <v>450</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>451</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>452</v>
+      </c>
+      <c r="X54" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>455</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>456</v>
+      </c>
+      <c r="J55" t="s">
+        <v>457</v>
+      </c>
+      <c r="K55" t="s">
+        <v>458</v>
+      </c>
+      <c r="L55" t="s">
+        <v>459</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>460</v>
+      </c>
+      <c r="X55" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>463</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>464</v>
+      </c>
+      <c r="J56" t="s">
+        <v>465</v>
+      </c>
+      <c r="K56" t="s">
+        <v>466</v>
+      </c>
+      <c r="L56" t="s">
+        <v>467</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>468</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>469</v>
+      </c>
+      <c r="X56" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>472</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>474</v>
+      </c>
+      <c r="K57" t="s">
+        <v>475</v>
+      </c>
+      <c r="L57" t="s">
+        <v>476</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>477</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>478</v>
+      </c>
+      <c r="X57" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>481</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>482</v>
+      </c>
+      <c r="J58" t="s">
+        <v>483</v>
+      </c>
+      <c r="K58" t="s">
+        <v>484</v>
+      </c>
+      <c r="L58" t="s">
+        <v>485</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>486</v>
+      </c>
+      <c r="X58" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>489</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>490</v>
+      </c>
+      <c r="J59" t="s">
+        <v>491</v>
+      </c>
+      <c r="K59" t="s">
+        <v>492</v>
+      </c>
+      <c r="L59" t="s">
+        <v>493</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>494</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>495</v>
+      </c>
+      <c r="X59" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>499</v>
+      </c>
+      <c r="J60" t="s">
+        <v>500</v>
+      </c>
+      <c r="K60" t="s">
+        <v>501</v>
+      </c>
+      <c r="L60" t="s">
+        <v>502</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>503</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>504</v>
+      </c>
+      <c r="X60" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>507</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J61" t="s">
+        <v>509</v>
+      </c>
+      <c r="K61" t="s">
+        <v>510</v>
+      </c>
+      <c r="L61" t="s">
+        <v>511</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>503</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>512</v>
+      </c>
+      <c r="X61" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>515</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>516</v>
+      </c>
+      <c r="J62" t="s">
+        <v>517</v>
+      </c>
+      <c r="K62" t="s">
+        <v>518</v>
+      </c>
+      <c r="L62" t="s">
+        <v>519</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>503</v>
+      </c>
+      <c r="O62" t="s">
+        <v>274</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>520</v>
+      </c>
+      <c r="X62" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>523</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>524</v>
+      </c>
+      <c r="J63" t="s">
+        <v>525</v>
+      </c>
+      <c r="K63" t="s">
+        <v>526</v>
+      </c>
+      <c r="L63" t="s">
+        <v>527</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>494</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>528</v>
+      </c>
+      <c r="X63" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>531</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>532</v>
+      </c>
+      <c r="J64" t="s">
+        <v>533</v>
+      </c>
+      <c r="K64" t="s">
+        <v>534</v>
+      </c>
+      <c r="L64" t="s">
+        <v>535</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>528</v>
+      </c>
+      <c r="X64" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>537</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>538</v>
+      </c>
+      <c r="J65" t="s">
+        <v>539</v>
+      </c>
+      <c r="K65" t="s">
+        <v>540</v>
+      </c>
+      <c r="L65" t="s">
+        <v>541</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>542</v>
+      </c>
+      <c r="X65" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62644</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>545</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>546</v>
+      </c>
+      <c r="J66" t="s">
+        <v>547</v>
+      </c>
+      <c r="K66" t="s">
+        <v>548</v>
+      </c>
+      <c r="L66" t="s">
+        <v>549</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>494</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>550</v>
+      </c>
+      <c r="X66" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
